--- a/PIR-Switch/Calculation.xlsx
+++ b/PIR-Switch/Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bot-10\Documents\Kicad-Project\PIR-Switch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29960815-6053-45C3-B79D-3A6E2A1E1214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C78518-53ED-4E42-8CC9-4BE1706C0E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20955" yWindow="9195" windowWidth="8160" windowHeight="6435" xr2:uid="{1A7626B5-968A-4FD7-B03A-53FE19EE8EBD}"/>
+    <workbookView xWindow="24015" yWindow="915" windowWidth="8160" windowHeight="6435" xr2:uid="{1A7626B5-968A-4FD7-B03A-53FE19EE8EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="PIR_SWITCH" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D52ECDE-2E34-4E96-99B2-40D02A6FB711}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,17 +500,17 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1">
         <f>240*D2/(C2+D2)</f>
-        <v>40</v>
+        <v>21.818181818181817</v>
       </c>
       <c r="H2" s="1">
         <f>240/(C2+D2)</f>
-        <v>0.02</v>
+        <v>2.181818181818182E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
       </c>
       <c r="F3">
         <f>(1/(2*PI()*D2*50)*1000000)</f>
-        <v>1.5915494309189535</v>
+        <v>3.183098861837907</v>
       </c>
     </row>
   </sheetData>
